--- a/Startup/All ingredient names.xlsx
+++ b/Startup/All ingredient names.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="739">
   <si>
     <t>Fats and Oils</t>
   </si>
@@ -1627,6 +1627,9 @@
     <t>Loaf</t>
   </si>
   <si>
+    <t>Chuck</t>
+  </si>
+  <si>
     <t>Cheddar cheese</t>
   </si>
   <si>
@@ -1648,6 +1651,9 @@
     <t>Loaves</t>
   </si>
   <si>
+    <t>Brisket</t>
+  </si>
+  <si>
     <t>Green Peas</t>
   </si>
   <si>
@@ -1675,6 +1681,9 @@
     <t>Ciabatta</t>
   </si>
   <si>
+    <t>Prosciutto</t>
+  </si>
+  <si>
     <t>Artichokes</t>
   </si>
   <si>
@@ -1696,6 +1705,9 @@
     <t>Baguette</t>
   </si>
   <si>
+    <t>Chorizo</t>
+  </si>
+  <si>
     <t>Cream</t>
   </si>
   <si>
@@ -1810,6 +1822,9 @@
     <t>Okra</t>
   </si>
   <si>
+    <t>Curry leaves</t>
+  </si>
+  <si>
     <t>Peppercorns (black, white, green)</t>
   </si>
   <si>
@@ -1945,6 +1960,9 @@
     <t>Dried Mustard</t>
   </si>
   <si>
+    <t>Pickled beets</t>
+  </si>
+  <si>
     <t>Ramen</t>
   </si>
   <si>
@@ -1963,6 +1981,9 @@
     <t>All Spice</t>
   </si>
   <si>
+    <t>Seasoning cube</t>
+  </si>
+  <si>
     <t>Soft Hamburger Buns</t>
   </si>
   <si>
@@ -1978,6 +1999,9 @@
     <t>Cinamon Sticks</t>
   </si>
   <si>
+    <t>Sesame paste</t>
+  </si>
+  <si>
     <t>Ground Flaxseed</t>
   </si>
   <si>
@@ -1999,6 +2023,9 @@
     <t>Lavash</t>
   </si>
   <si>
+    <t>Fromage blanc</t>
+  </si>
+  <si>
     <t>Clementine</t>
   </si>
   <si>
@@ -2044,6 +2071,9 @@
     <t>Annatto powder</t>
   </si>
   <si>
+    <t>Lasagne sheets</t>
+  </si>
+  <si>
     <t>Boysenberry</t>
   </si>
   <si>
@@ -2053,6 +2083,9 @@
     <t>Galangal</t>
   </si>
   <si>
+    <t>Tortillas</t>
+  </si>
+  <si>
     <t>Loganberry</t>
   </si>
   <si>
@@ -2183,6 +2216,9 @@
   </si>
   <si>
     <t>Kombu</t>
+  </si>
+  <si>
+    <t>Currants</t>
   </si>
   <si>
     <t>Fingerroot</t>
@@ -4272,69 +4308,78 @@
       <c r="L34" s="3" t="s">
         <v>537</v>
       </c>
+      <c r="O34" s="3" t="s">
+        <v>538</v>
+      </c>
       <c r="Q34" s="3" t="s">
         <v>81</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35">
       <c r="C35" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>67</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36">
       <c r="C36" s="3" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>556</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="37">
@@ -4342,28 +4387,31 @@
         <v>255</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>560</v>
+        <v>563</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="Q37" s="3" t="s">
         <v>65</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38">
@@ -4371,57 +4419,57 @@
         <v>303</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="Q38" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="39">
       <c r="C39" s="3" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="40">
@@ -4429,28 +4477,28 @@
         <v>105</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="Q40" s="3" t="s">
         <v>453</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="41">
@@ -4458,28 +4506,28 @@
         <v>478</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="42">
@@ -4490,22 +4538,22 @@
         <v>336</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>297</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="43">
@@ -4513,91 +4561,94 @@
         <v>201</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>598</v>
+        <v>602</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>603</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="44">
       <c r="C44" s="3" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="45">
       <c r="C45" s="3" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>264</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="46">
       <c r="C46" s="3" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>154</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="47">
@@ -4605,65 +4656,65 @@
         <v>531</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
     <row r="48">
       <c r="C48" s="3" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>418</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="49">
       <c r="C49" s="3" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>293</v>
@@ -4671,265 +4722,283 @@
     </row>
     <row r="50">
       <c r="C50" s="3" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>643</v>
+        <v>648</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>649</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="51">
       <c r="C51" s="3" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>649</v>
+        <v>655</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>656</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="52">
       <c r="C52" s="3" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>654</v>
+        <v>661</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>662</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
     </row>
     <row r="53">
       <c r="C53" s="3" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>661</v>
+        <v>669</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="54">
       <c r="C54" s="3" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
     </row>
     <row r="55">
       <c r="C55" s="3" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
     </row>
     <row r="56">
       <c r="C56" s="3" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
     </row>
     <row r="57">
       <c r="C57" s="3" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>676</v>
+        <v>685</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="58">
       <c r="C58" s="3" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>679</v>
+        <v>689</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="59">
       <c r="C59" s="3" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
     </row>
     <row r="60">
       <c r="C60" s="3" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
     </row>
     <row r="61">
       <c r="C61" s="3" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
     </row>
     <row r="62">
       <c r="C62" s="3" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="63">
       <c r="C63" s="3" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
     </row>
     <row r="64">
       <c r="C64" s="3" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
     </row>
     <row r="65">
       <c r="C65" s="3" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
     </row>
     <row r="66">
       <c r="C66" s="3" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
     </row>
     <row r="67">
       <c r="C67" s="3" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
     </row>
     <row r="68">
       <c r="C68" s="3" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
     </row>
     <row r="69">
       <c r="C69" s="3" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
     </row>
     <row r="70">
       <c r="C70" s="3" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
     </row>
     <row r="71">
       <c r="C71" s="3" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>272</v>
@@ -4937,7 +5006,7 @@
     </row>
     <row r="72">
       <c r="C72" s="3" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>204</v>
@@ -4945,57 +5014,60 @@
     </row>
     <row r="73">
       <c r="C73" s="3" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
     </row>
     <row r="74">
       <c r="C74" s="3" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
     </row>
     <row r="75">
       <c r="C75" s="3" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
     </row>
     <row r="76">
       <c r="C76" s="3" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
     </row>
     <row r="77">
       <c r="C77" s="3" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
     </row>
     <row r="78">
+      <c r="C78" s="3" t="s">
+        <v>735</v>
+      </c>
       <c r="D78" s="3" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
     </row>
     <row r="79">
       <c r="D79" s="3" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
     </row>
     <row r="80">
       <c r="D80" s="3" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>
